--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Add type and 'presented' to payment search functionality.</t>
+  </si>
+  <si>
+    <t>Add generic dialog box to communicate events to the client - don't use Window.alert()</t>
+  </si>
+  <si>
+    <t>Add ability to cancel an upload</t>
   </si>
 </sst>
 </file>
@@ -141,8 +147,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,14 +163,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -210,66 +220,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -610,11 +560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -655,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1">
@@ -721,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16" thickBot="1">
@@ -746,17 +694,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:20" ht="16" thickBot="1">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" thickBot="1">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Add ability to cancel an upload</t>
+  </si>
+  <si>
+    <t>Add basic login form</t>
+  </si>
+  <si>
+    <t>Add basic user registration form</t>
+  </si>
+  <si>
+    <t>Add ability to encrypt user passwords</t>
+  </si>
+  <si>
+    <t>Add ability to encrypt/decrypt user sensitive data (acc name/number/bsb)</t>
   </si>
 </sst>
 </file>
@@ -147,8 +159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -163,16 +177,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -190,6 +206,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -560,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" thickBot="1">
@@ -716,17 +792,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:20" ht="16" thickBot="1">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" thickBot="1">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" thickBot="1">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" thickBot="1">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="C4:C18">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>Add ability to encrypt/decrypt user sensitive data (acc name/number/bsb)</t>
+  </si>
+  <si>
+    <t>Disable delete/save buttons when doing DB operations</t>
+  </si>
+  <si>
+    <t>Add wait cursor on all delete/save operations</t>
+  </si>
+  <si>
+    <t>Add default 'manual tax' to DB configuration row</t>
+  </si>
+  <si>
+    <t>Add default 'debt age' to DB configuration row</t>
+  </si>
+  <si>
+    <t>Add default 'supplier' to invoice screen (add this default to the DB configuration row)</t>
+  </si>
+  <si>
+    <t>Setup confluence on ezeeit.com server and add basic instructions for ezee invoices</t>
+  </si>
+  <si>
+    <t>Add 'invoice date' to invoice entity (= date on the supplier invoice)</t>
+  </si>
+  <si>
+    <t>Add invoice date from/to search filter fields on the invoice grid</t>
+  </si>
+  <si>
+    <t>Ass invoice date to the grid model</t>
   </si>
 </sst>
 </file>
@@ -159,8 +186,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,18 +208,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -206,66 +241,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -636,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1">
@@ -811,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" thickBot="1">
@@ -822,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1">
@@ -836,17 +811,116 @@
         <v>4</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="16" thickBot="1">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" thickBot="1">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" thickBot="1">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" thickBot="1">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" thickBot="1">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" thickBot="1">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" thickBot="1">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" thickBot="1">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" thickBot="1">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C19">
-    <cfRule type="expression" dxfId="11" priority="9">
+  <conditionalFormatting sqref="C4:C27">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+  <conditionalFormatting sqref="C4:C27">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="36760" windowHeight="24820" tabRatio="500"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="36760" windowHeight="24820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>Ass invoice date to the grid model</t>
+  </si>
+  <si>
+    <t>Implement drag and drop functionality for supplier invoices (from windows desktop to application)</t>
+  </si>
+  <si>
+    <t>Add Fax number to payee/payer screen</t>
+  </si>
+  <si>
+    <t>Add button bar on LHS of the screen for frequently used operations</t>
+  </si>
+  <si>
+    <t>Add right click on PDF row to attach PDF to email</t>
+  </si>
+  <si>
+    <t>Implement baisc excel report functionality</t>
+  </si>
+  <si>
+    <t>Add the ability to delete an invoice from a supplier</t>
+  </si>
+  <si>
+    <t>Add ability to raise an invoice from the supplier screen (for the supplier highlighted)</t>
+  </si>
+  <si>
+    <t>Add contact name field to payee/payer screen</t>
+  </si>
+  <si>
+    <t>Enable edit currently logged in user</t>
+  </si>
+  <si>
+    <t>Eliminate caching of the GWT application when new version is deployed.</t>
   </si>
 </sst>
 </file>
@@ -186,8 +216,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,39 +250,531 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1">
@@ -819,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1">
@@ -830,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" thickBot="1">
@@ -841,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" thickBot="1">
@@ -852,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
@@ -863,7 +1397,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" thickBot="1">
@@ -885,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" thickBot="1">
@@ -896,7 +1430,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" thickBot="1">
@@ -907,20 +1441,130 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" thickBot="1">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="16" thickBot="1">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" thickBot="1">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" thickBot="1">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" thickBot="1">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" thickBot="1">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" thickBot="1">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" thickBot="1">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" thickBot="1">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" thickBot="1">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C27">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="C4:C37">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C27">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="C4:C37">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Eliminate caching of the GWT application when new version is deployed.</t>
+  </si>
+  <si>
+    <t>Add remember me functionality</t>
   </si>
 </sst>
 </file>
@@ -216,8 +219,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -263,6 +268,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -275,9 +281,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -295,486 +302,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1145,9 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1554,17 +1083,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="16" thickBot="1">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C37">
-    <cfRule type="expression" dxfId="53" priority="24">
+  <conditionalFormatting sqref="C4:C38">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C37">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+  <conditionalFormatting sqref="C4:C38">
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="0" windowWidth="36760" windowHeight="24820" tabRatio="500"/>
+    <workbookView xWindow="14320" yWindow="1480" windowWidth="36760" windowHeight="24820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Add remember me functionality</t>
+  </si>
+  <si>
+    <t>Fix filteriing - currently this is implemented as an OR should be implemented as an AND</t>
+  </si>
+  <si>
+    <t>Fix report to excel</t>
+  </si>
+  <si>
+    <t>Add filtering on invoice DAO to be able to generate the correct filtered excel report</t>
+  </si>
+  <si>
+    <t>Make invoice screen look nicer</t>
   </si>
 </sst>
 </file>
@@ -219,8 +231,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -269,6 +285,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -282,6 +300,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -672,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -992,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
@@ -1003,7 +1023,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" thickBot="1">
@@ -1025,7 +1045,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1">
@@ -1036,7 +1056,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" thickBot="1">
@@ -1047,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1">
@@ -1058,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
@@ -1069,7 +1089,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" thickBot="1">
@@ -1091,20 +1111,77 @@
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" thickBot="1">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" thickBot="1">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" thickBot="1">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" thickBot="1">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="expression" dxfId="5" priority="24">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="25" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C42">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>"Not Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C42">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="1480" windowWidth="36760" windowHeight="24820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33240" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>Make invoice screen look nicer</t>
+  </si>
+  <si>
+    <t>Select all text in text box when clicking on it</t>
+  </si>
+  <si>
+    <t>Add ability to enter full invoice amount and have system work out net and tax amounts (reverse entry)</t>
+  </si>
+  <si>
+    <t>Add separate capital item sub total to report.  Add expense + capital total.  Add gross capital + expense totals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add ability to amend inovice after making payment </t>
+  </si>
+  <si>
+    <t>Add customer name to header</t>
+  </si>
+  <si>
+    <t>Add date and time to header</t>
+  </si>
+  <si>
+    <t>Format report</t>
+  </si>
+  <si>
+    <t>Get version from DB</t>
   </si>
 </sst>
 </file>
@@ -231,8 +255,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -271,7 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -287,6 +323,12 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -302,9 +344,45 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -692,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -847,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16" thickBot="1">
@@ -1115,69 +1193,146 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" thickBot="1">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" thickBot="1">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" thickBot="1">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" thickBot="1">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" thickBot="1">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" thickBot="1">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" thickBot="1">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="45" spans="1:3" ht="16" thickBot="1">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" thickBot="1">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="1:3" ht="16" thickBot="1">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" thickBot="1">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="cellIs" dxfId="4" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C42">
+  <conditionalFormatting sqref="C39:C41">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>"Not Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C41">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C42">
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$T$2</formula>
     </cfRule>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Get version from DB</t>
+  </si>
+  <si>
+    <t>Change TAX to GST</t>
   </si>
 </sst>
 </file>
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1298,6 +1301,11 @@
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Outstanding Tasks</t>
   </si>
@@ -258,8 +258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -310,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -332,6 +336,8 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -353,9 +359,221 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -776,7 +994,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1283,68 +1501,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16" thickBot="1">
       <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" thickBot="1">
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="16" thickBot="1">
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="16" thickBot="1">
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="16" thickBot="1">
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="expression" dxfId="8" priority="30">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C41">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C41">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C42:C48">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C42:C48">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>"Not Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>"Not Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>"Not Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezee_invoice_tracking.xlsx
+++ b/ezeeparent/ezee_invoice_tracking.xlsx
@@ -258,8 +258,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -338,6 +340,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -361,9 +364,10 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -396,141 +400,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -993,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1476,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" thickBot="1">
@@ -1487,7 +1369,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" thickBot="1">
@@ -1502,7 +1384,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1">
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1510,31 +1395,43 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1">
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="16" thickBot="1">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:3" ht="16" thickBot="1">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="16" thickBot="1">
-      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" thickBot="1">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="16" thickBot="1">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:3" ht="16" thickBot="1">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1543,80 +1440,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C38">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="38" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C41">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C41">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C48">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C48">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>"Not Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
